--- a/data/trans_orig/P59A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{412AD31C-97EA-4997-97E9-D84D89F9C6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{323C1A69-1481-48AA-82A4-B5B94FF5D7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E11F222B-13F5-4A0F-8A0C-EC5337475DA1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2CEC1EEE-B7B7-4967-BE79-EADD2A9F4E77}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="497">
   <si>
     <t>Población según si viven actualmente en pareja en 2007 (Tasa respuesta: 40,22%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>5,77%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>94,23%</t>
   </si>
   <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>90,09%</t>
   </si>
   <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,19 +140,19 @@
     <t>24,19%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
   </si>
   <si>
     <t>27,88%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
   </si>
   <si>
     <t>25,62%</t>
@@ -161,31 +161,31 @@
     <t>22,45%</t>
   </si>
   <si>
-    <t>29,17%</t>
+    <t>29,11%</t>
   </si>
   <si>
     <t>75,81%</t>
   </si>
   <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
   </si>
   <si>
     <t>72,12%</t>
   </si>
   <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>74,38%</t>
   </si>
   <si>
-    <t>70,83%</t>
+    <t>70,89%</t>
   </si>
   <si>
     <t>77,55%</t>
@@ -197,55 +197,55 @@
     <t>11,63%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>12,02%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>88,37%</t>
   </si>
   <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>87,98%</t>
   </si>
   <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,1318 +254,1282 @@
     <t>18,75%</t>
   </si>
   <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2015 (Tasa respuesta: 44,02%)</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>88,87%</t>
   </si>
   <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2015 (Tasa respuesta: 44,02%)</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>94,97%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>4,05%</t>
   </si>
   <si>
     <t>92,84%</t>
   </si>
   <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>95,95%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
   </si>
   <si>
     <t>85,57%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
   </si>
 </sst>
 </file>
@@ -1977,7 +1941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2277D9FB-864F-4C05-96D0-C58464D6D3CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6308CA75-0C69-445B-B04B-5ADA04ED1562}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2572,7 +2536,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2581,13 +2545,13 @@
         <v>1982</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2596,13 +2560,13 @@
         <v>18830</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2581,13 @@
         <v>72996</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>97</v>
@@ -2632,13 +2596,13 @@
         <v>100961</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>162</v>
@@ -2647,13 +2611,13 @@
         <v>173957</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,7 +2673,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2721,13 +2685,13 @@
         <v>7076</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2736,13 +2700,13 @@
         <v>2940</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2751,13 +2715,13 @@
         <v>10016</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2736,13 @@
         <v>45595</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -2787,13 +2751,13 @@
         <v>88331</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>132</v>
@@ -2802,13 +2766,13 @@
         <v>133926</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,7 +2828,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2876,13 +2840,13 @@
         <v>2672</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2891,13 +2855,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2906,13 +2870,13 @@
         <v>2672</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2891,13 @@
         <v>100408</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>331</v>
@@ -2942,10 +2906,10 @@
         <v>349190</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -2957,13 +2921,13 @@
         <v>449598</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +2995,13 @@
         <v>176279</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>133</v>
@@ -3046,13 +3010,13 @@
         <v>141378</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>300</v>
@@ -3061,13 +3025,13 @@
         <v>317657</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3046,13 @@
         <v>1111973</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>1222</v>
@@ -3097,13 +3061,13 @@
         <v>1240885</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>2319</v>
@@ -3112,13 +3076,13 @@
         <v>2352859</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,7 +3138,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3196,7 +3160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AB7852-E6BB-4852-B360-EF27A2900E09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEF1977-98FB-4B9A-B472-8376CE346CD9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3213,7 +3177,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3320,13 +3284,13 @@
         <v>33734</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -3335,13 +3299,13 @@
         <v>43409</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>75</v>
@@ -3350,13 +3314,13 @@
         <v>77143</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3335,13 @@
         <v>393605</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>333</v>
@@ -3386,13 +3350,13 @@
         <v>340116</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>718</v>
@@ -3401,13 +3365,13 @@
         <v>733721</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3439,13 @@
         <v>104752</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -3490,13 +3454,13 @@
         <v>85619</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -3505,13 +3469,13 @@
         <v>190371</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3490,13 @@
         <v>352083</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>182</v>
@@ -3541,13 +3505,13 @@
         <v>193865</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>525</v>
@@ -3556,13 +3520,13 @@
         <v>545948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3594,13 @@
         <v>37069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3645,13 +3609,13 @@
         <v>45060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -3660,13 +3624,13 @@
         <v>82129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3645,13 @@
         <v>127121</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -3696,13 +3660,13 @@
         <v>97316</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7">
         <v>212</v>
@@ -3711,13 +3675,13 @@
         <v>224436</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3749,13 @@
         <v>25722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3800,13 +3764,13 @@
         <v>11279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3815,13 +3779,13 @@
         <v>37001</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3800,13 @@
         <v>114051</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -3851,13 +3815,13 @@
         <v>120367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M14" s="7">
         <v>206</v>
@@ -3866,13 +3830,13 @@
         <v>234417</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,7 +3892,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3940,13 +3904,13 @@
         <v>7332</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3955,13 +3919,13 @@
         <v>11527</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -3970,13 +3934,13 @@
         <v>18859</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3955,13 @@
         <v>54154</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -4006,13 +3970,13 @@
         <v>90722</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>132</v>
@@ -4021,13 +3985,13 @@
         <v>144875</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,7 +4047,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4095,13 +4059,13 @@
         <v>2974</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4110,13 +4074,13 @@
         <v>5845</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4125,13 +4089,13 @@
         <v>8819</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4110,13 @@
         <v>130745</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -4161,13 +4125,13 @@
         <v>378659</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>468</v>
@@ -4176,13 +4140,13 @@
         <v>509404</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4214,13 @@
         <v>211582</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -4265,13 +4229,13 @@
         <v>202740</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M22" s="7">
         <v>375</v>
@@ -4280,13 +4244,13 @@
         <v>414321</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>252</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4265,13 @@
         <v>1171758</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H23" s="7">
         <v>1145</v>
@@ -4316,13 +4280,13 @@
         <v>1221043</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M23" s="7">
         <v>2261</v>
@@ -4331,13 +4295,13 @@
         <v>2392802</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,7 +4357,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4415,7 +4379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0180526-6244-4B52-A262-ABFE3241D6E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2382A38-4748-4852-81AE-5D90A0F2299E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4432,7 +4396,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4539,13 +4503,13 @@
         <v>25825</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -4554,13 +4518,13 @@
         <v>48940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M4" s="7">
         <v>74</v>
@@ -4569,13 +4533,13 @@
         <v>74765</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4554,13 @@
         <v>370122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>316</v>
@@ -4605,13 +4569,13 @@
         <v>308792</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M5" s="7">
         <v>663</v>
@@ -4620,13 +4584,13 @@
         <v>678914</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4658,13 @@
         <v>126243</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -4709,28 +4673,28 @@
         <v>98180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M7" s="7">
         <v>219</v>
       </c>
       <c r="N7" s="7">
-        <v>224423</v>
+        <v>224424</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +4709,13 @@
         <v>259812</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H8" s="7">
         <v>226</v>
@@ -4760,13 +4724,13 @@
         <v>219487</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
         <v>479</v>
@@ -4775,13 +4739,13 @@
         <v>479299</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,7 +4787,7 @@
         <v>698</v>
       </c>
       <c r="N9" s="7">
-        <v>703722</v>
+        <v>703723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4849,13 +4813,13 @@
         <v>54995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4864,13 +4828,13 @@
         <v>48630</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
@@ -4882,10 +4846,10 @@
         <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,13 +4864,13 @@
         <v>166425</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H11" s="7">
         <v>139</v>
@@ -4915,13 +4879,13 @@
         <v>134390</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M11" s="7">
         <v>300</v>
@@ -4933,10 +4897,10 @@
         <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +4968,13 @@
         <v>23570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5019,13 +4983,13 @@
         <v>17752</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -5034,13 +4998,13 @@
         <v>41322</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5019,13 @@
         <v>161283</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
@@ -5070,13 +5034,13 @@
         <v>156119</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
@@ -5085,13 +5049,13 @@
         <v>317402</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,7 +5111,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5159,13 +5123,13 @@
         <v>17607</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5174,13 +5138,13 @@
         <v>8593</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5189,13 +5153,13 @@
         <v>26200</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,13 +5174,13 @@
         <v>89418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
         <v>140</v>
@@ -5225,13 +5189,13 @@
         <v>162541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M17" s="7">
         <v>219</v>
@@ -5240,13 +5204,13 @@
         <v>251959</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,7 +5266,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5314,13 +5278,13 @@
         <v>7023</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>353</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5329,13 +5293,13 @@
         <v>2101</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -5344,13 +5308,13 @@
         <v>9124</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,13 +5329,13 @@
         <v>159619</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>319</v>
@@ -5380,13 +5344,13 @@
         <v>387590</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M20" s="7">
         <v>489</v>
@@ -5395,13 +5359,13 @@
         <v>547210</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5433,13 @@
         <v>255263</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>220</v>
@@ -5484,13 +5448,13 @@
         <v>224197</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="M22" s="7">
         <v>454</v>
@@ -5499,13 +5463,13 @@
         <v>479461</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5484,13 @@
         <v>1206679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H23" s="7">
         <v>1282</v>
@@ -5535,13 +5499,13 @@
         <v>1368918</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="M23" s="7">
         <v>2438</v>
@@ -5550,13 +5514,13 @@
         <v>2575597</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,7 +5576,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5634,7 +5598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849359A2-953F-42A2-8DAD-67A1F86BECB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E2A045-EA30-4676-8968-E366B5BD54A3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5651,7 +5615,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5758,13 +5722,13 @@
         <v>19611</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5773,13 +5737,13 @@
         <v>25253</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5788,13 +5752,13 @@
         <v>44864</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>394</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5773,13 @@
         <v>356805</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5824,13 +5788,13 @@
         <v>317356</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M5" s="7">
         <v>344</v>
@@ -5839,13 +5803,13 @@
         <v>674161</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>404</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5877,13 @@
         <v>103150</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>183</v>
+        <v>396</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H7" s="7">
         <v>85</v>
@@ -5928,13 +5892,13 @@
         <v>94067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
@@ -5943,13 +5907,13 @@
         <v>197217</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>402</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5928,13 @@
         <v>242018</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>406</v>
       </c>
       <c r="H8" s="7">
         <v>191</v>
@@ -5979,13 +5943,13 @@
         <v>236009</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M8" s="7">
         <v>358</v>
@@ -5994,13 +5958,13 @@
         <v>478027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6032,13 @@
         <v>67508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -6083,13 +6047,13 @@
         <v>66059</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -6098,13 +6062,13 @@
         <v>133568</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6083,13 @@
         <v>165245</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H11" s="7">
         <v>194</v>
@@ -6134,13 +6098,13 @@
         <v>138909</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M11" s="7">
         <v>349</v>
@@ -6149,13 +6113,13 @@
         <v>304153</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6187,13 @@
         <v>32353</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -6238,13 +6202,13 @@
         <v>36188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -6253,13 +6217,13 @@
         <v>68541</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6238,13 @@
         <v>233844</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H14" s="7">
         <v>282</v>
@@ -6289,13 +6253,13 @@
         <v>182776</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="M14" s="7">
         <v>506</v>
@@ -6304,13 +6268,13 @@
         <v>416619</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,7 +6330,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6378,13 +6342,13 @@
         <v>24826</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>455</v>
+        <v>122</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>457</v>
+        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -6393,13 +6357,13 @@
         <v>16271</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -6408,13 +6372,13 @@
         <v>41097</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6393,13 @@
         <v>181989</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>464</v>
+        <v>132</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>465</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H17" s="7">
         <v>342</v>
@@ -6444,13 +6408,13 @@
         <v>205053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="M17" s="7">
         <v>539</v>
@@ -6459,13 +6423,13 @@
         <v>387042</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,7 +6485,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6533,13 +6497,13 @@
         <v>16099</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -6548,13 +6512,13 @@
         <v>6925</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -6563,13 +6527,13 @@
         <v>23024</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,13 +6548,13 @@
         <v>208843</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7">
         <v>1007</v>
@@ -6599,13 +6563,13 @@
         <v>545156</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="M20" s="7">
         <v>1321</v>
@@ -6614,13 +6578,13 @@
         <v>753999</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6652,13 @@
         <v>263548</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="H22" s="7">
         <v>293</v>
@@ -6703,13 +6667,13 @@
         <v>244763</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="M22" s="7">
         <v>509</v>
@@ -6718,13 +6682,13 @@
         <v>508310</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6703,13 @@
         <v>1388742</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="H23" s="7">
         <v>2199</v>
@@ -6754,13 +6718,13 @@
         <v>1625259</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="M23" s="7">
         <v>3417</v>
@@ -6769,13 +6733,13 @@
         <v>3014002</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,7 +6795,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P59A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{323C1A69-1481-48AA-82A4-B5B94FF5D7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7429FF89-C247-4770-988B-E3818876B491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2CEC1EEE-B7B7-4967-BE79-EADD2A9F4E77}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BB52B39-292A-4B94-95D3-00D989051A7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="495">
   <si>
     <t>Población según si viven actualmente en pareja en 2007 (Tasa respuesta: 40,22%)</t>
   </si>
@@ -77,1338 +77,1338 @@
     <t>5,77%</t>
   </si>
   <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2016 (Tasa respuesta: 44,02%)</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>96,26%</t>
   </si>
   <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>88,0%</t>
   </si>
   <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
     <t>82,52%</t>
   </si>
   <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2015 (Tasa respuesta: 44,02%)</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
     <t>92,09%</t>
   </si>
   <si>
@@ -1430,9 +1430,6 @@
     <t>92,78%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
     <t>4,74%</t>
   </si>
   <si>
@@ -1452,9 +1449,6 @@
   </si>
   <si>
     <t>4,05%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
   </si>
   <si>
     <t>89,43%</t>
@@ -1941,7 +1935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6308CA75-0C69-445B-B04B-5ADA04ED1562}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A973311F-DE40-4E11-8BDC-D5998F2FF58A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2536,7 +2530,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2545,13 +2539,13 @@
         <v>1982</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2560,13 +2554,13 @@
         <v>18830</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2575,13 @@
         <v>72996</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>97</v>
@@ -2596,13 +2590,13 @@
         <v>100961</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>162</v>
@@ -2611,13 +2605,13 @@
         <v>173957</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,7 +2667,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2685,13 +2679,13 @@
         <v>7076</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2700,13 +2694,13 @@
         <v>2940</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2715,13 +2709,13 @@
         <v>10016</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2730,13 @@
         <v>45595</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -2751,13 +2745,13 @@
         <v>88331</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>132</v>
@@ -2766,13 +2760,13 @@
         <v>133926</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,7 +2822,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2840,13 +2834,13 @@
         <v>2672</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2855,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2870,13 +2864,13 @@
         <v>2672</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2885,13 @@
         <v>100408</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>331</v>
@@ -2906,10 +2900,10 @@
         <v>349190</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -2921,13 +2915,13 @@
         <v>449598</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2989,13 @@
         <v>176279</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>133</v>
@@ -3010,13 +3004,13 @@
         <v>141378</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="M22" s="7">
         <v>300</v>
@@ -3025,13 +3019,13 @@
         <v>317657</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3040,13 @@
         <v>1111973</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>1222</v>
@@ -3061,10 +3055,10 @@
         <v>1240885</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>135</v>
@@ -3160,7 +3154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEF1977-98FB-4B9A-B472-8376CE346CD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC8B9C3-FBCC-4EBD-B4CD-8F577A4A242D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3305,7 +3299,7 @@
         <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>75</v>
@@ -3314,13 +3308,13 @@
         <v>77143</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,10 +3347,10 @@
         <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>718</v>
@@ -3365,10 +3359,10 @@
         <v>733721</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>156</v>
@@ -3594,13 +3588,13 @@
         <v>37069</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3609,13 +3603,13 @@
         <v>45060</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -3624,13 +3618,13 @@
         <v>82129</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3639,13 @@
         <v>127121</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -3660,13 +3654,13 @@
         <v>97316</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M11" s="7">
         <v>212</v>
@@ -3675,13 +3669,13 @@
         <v>224436</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3743,13 @@
         <v>25722</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3764,13 +3758,13 @@
         <v>11279</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3779,13 +3773,13 @@
         <v>37001</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3794,13 @@
         <v>114051</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -3815,13 +3809,13 @@
         <v>120367</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M14" s="7">
         <v>206</v>
@@ -3830,13 +3824,13 @@
         <v>234417</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,7 +3886,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3904,13 +3898,13 @@
         <v>7332</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3919,13 +3913,13 @@
         <v>11527</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -3934,13 +3928,13 @@
         <v>18859</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3949,13 @@
         <v>54154</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -3970,13 +3964,13 @@
         <v>90722</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>132</v>
@@ -3985,13 +3979,13 @@
         <v>144875</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,7 +4041,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4059,13 +4053,13 @@
         <v>2974</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4074,13 +4068,13 @@
         <v>5845</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4089,13 +4083,13 @@
         <v>8819</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4104,13 @@
         <v>130745</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -4125,13 +4119,13 @@
         <v>378659</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>468</v>
@@ -4140,10 +4134,10 @@
         <v>509404</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>244</v>
@@ -4379,7 +4373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2382A38-4748-4852-81AE-5D90A0F2299E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF97AC5-824C-4E5D-90E0-12AFE9EFF313}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4509,7 +4503,7 @@
         <v>265</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -4518,13 +4512,13 @@
         <v>48940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>74</v>
@@ -4533,13 +4527,13 @@
         <v>74765</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4548,13 @@
         <v>370122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>273</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>316</v>
@@ -4569,13 +4563,13 @@
         <v>308792</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M5" s="7">
         <v>663</v>
@@ -4584,13 +4578,13 @@
         <v>678914</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4652,13 @@
         <v>126243</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -4673,28 +4667,28 @@
         <v>98180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M7" s="7">
         <v>219</v>
       </c>
       <c r="N7" s="7">
-        <v>224424</v>
+        <v>224423</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4703,13 @@
         <v>259812</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
         <v>226</v>
@@ -4724,13 +4718,13 @@
         <v>219487</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M8" s="7">
         <v>479</v>
@@ -4739,13 +4733,13 @@
         <v>479299</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,7 +4781,7 @@
         <v>698</v>
       </c>
       <c r="N9" s="7">
-        <v>703723</v>
+        <v>703722</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4813,13 +4807,13 @@
         <v>54995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4828,13 +4822,13 @@
         <v>48630</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
@@ -4846,10 +4840,10 @@
         <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4858,13 @@
         <v>166425</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H11" s="7">
         <v>139</v>
@@ -4879,13 +4873,13 @@
         <v>134390</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>300</v>
@@ -4897,10 +4891,10 @@
         <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4962,13 @@
         <v>23570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -4983,13 +4977,13 @@
         <v>17752</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4998,13 +4992,13 @@
         <v>41322</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>318</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5013,13 @@
         <v>161283</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
@@ -5034,13 +5028,13 @@
         <v>156119</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
@@ -5049,13 +5043,13 @@
         <v>317402</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>327</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,7 +5105,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5266,7 +5260,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5281,10 +5275,10 @@
         <v>346</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>347</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5293,13 +5287,13 @@
         <v>2101</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -5308,13 +5302,13 @@
         <v>9124</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5323,13 @@
         <v>159619</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="H20" s="7">
         <v>319</v>
@@ -5344,13 +5338,13 @@
         <v>387590</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>489</v>
@@ -5359,13 +5353,13 @@
         <v>547210</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5427,13 @@
         <v>255263</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H22" s="7">
         <v>220</v>
@@ -5448,13 +5442,13 @@
         <v>224197</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>54</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M22" s="7">
         <v>454</v>
@@ -5463,13 +5457,13 @@
         <v>479461</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5478,13 @@
         <v>1206679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H23" s="7">
         <v>1282</v>
@@ -5499,13 +5493,13 @@
         <v>1368918</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>374</v>
+        <v>63</v>
       </c>
       <c r="M23" s="7">
         <v>2438</v>
@@ -5598,7 +5592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E2A045-EA30-4676-8968-E366B5BD54A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5559C4F1-3C70-44B0-8D40-AF6D90B3F31F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5740,10 +5734,10 @@
         <v>382</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>383</v>
+        <v>265</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>384</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5752,13 +5746,13 @@
         <v>44864</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5767,13 @@
         <v>356805</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5788,13 +5782,13 @@
         <v>317356</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>391</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>392</v>
+        <v>274</v>
       </c>
       <c r="M5" s="7">
         <v>344</v>
@@ -5803,13 +5797,13 @@
         <v>674161</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5871,13 @@
         <v>103150</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H7" s="7">
         <v>85</v>
@@ -5892,13 +5886,13 @@
         <v>94067</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
@@ -5907,13 +5901,13 @@
         <v>197217</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5922,13 @@
         <v>242018</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H8" s="7">
         <v>191</v>
@@ -5943,13 +5937,13 @@
         <v>236009</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M8" s="7">
         <v>358</v>
@@ -5958,13 +5952,13 @@
         <v>478027</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6026,13 @@
         <v>67508</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -6047,13 +6041,13 @@
         <v>66059</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -6062,13 +6056,13 @@
         <v>133568</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6077,13 @@
         <v>165245</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H11" s="7">
         <v>194</v>
@@ -6098,13 +6092,13 @@
         <v>138909</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M11" s="7">
         <v>349</v>
@@ -6113,13 +6107,13 @@
         <v>304153</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,13 +6181,13 @@
         <v>32353</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>432</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -6202,13 +6196,13 @@
         <v>36188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -6217,13 +6211,13 @@
         <v>68541</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6232,13 @@
         <v>233844</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>442</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>282</v>
@@ -6253,13 +6247,13 @@
         <v>182776</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M14" s="7">
         <v>506</v>
@@ -6268,13 +6262,13 @@
         <v>416619</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,7 +6324,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6342,13 +6336,13 @@
         <v>24826</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>122</v>
+        <v>445</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>247</v>
+        <v>447</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -6357,13 +6351,13 @@
         <v>16271</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -6372,13 +6366,13 @@
         <v>41097</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,10 +6387,10 @@
         <v>181989</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>454</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>455</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>456</v>
@@ -6485,7 +6479,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6497,13 +6491,13 @@
         <v>16099</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -6512,13 +6506,13 @@
         <v>6925</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -6527,13 +6521,13 @@
         <v>23024</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6542,13 @@
         <v>208843</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="H20" s="7">
         <v>1007</v>
@@ -6563,13 +6557,13 @@
         <v>545156</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M20" s="7">
         <v>1321</v>
@@ -6578,13 +6572,13 @@
         <v>753999</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6646,13 @@
         <v>263548</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H22" s="7">
         <v>293</v>
@@ -6667,13 +6661,13 @@
         <v>244763</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M22" s="7">
         <v>509</v>
@@ -6682,13 +6676,13 @@
         <v>508310</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6697,13 @@
         <v>1388742</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H23" s="7">
         <v>2199</v>
@@ -6718,13 +6712,13 @@
         <v>1625259</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M23" s="7">
         <v>3417</v>
@@ -6733,13 +6727,13 @@
         <v>3014002</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P59A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7429FF89-C247-4770-988B-E3818876B491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5000B890-5A2F-476E-A3CF-38E28CFAE20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BB52B39-292A-4B94-95D3-00D989051A7C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2EE69A8-84F1-4441-BF5E-9E4CBF583ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="509">
   <si>
     <t>Población según si viven actualmente en pareja en 2007 (Tasa respuesta: 40,22%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>94,23%</t>
   </si>
   <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>90,09%</t>
   </si>
   <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1390 +140,1432 @@
     <t>24,19%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
   </si>
   <si>
     <t>27,88%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
   </si>
   <si>
     <t>25,62%</t>
   </si>
   <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2016 (Tasa respuesta: 44,02%)</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>92,84%</t>
   </si>
   <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2016 (Tasa respuesta: 44,02%)</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>95,95%</t>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>85,57%</t>
   </si>
   <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
 </sst>
 </file>
@@ -1935,7 +1977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A973311F-DE40-4E11-8BDC-D5998F2FF58A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0251EA55-E043-4D22-BFEF-73836FD3CE31}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3010,7 +3052,7 @@
         <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>300</v>
@@ -3019,13 +3061,13 @@
         <v>317657</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3082,13 @@
         <v>1111973</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>1222</v>
@@ -3055,13 +3097,13 @@
         <v>1240885</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>2319</v>
@@ -3070,13 +3112,13 @@
         <v>2352859</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,7 +3174,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC8B9C3-FBCC-4EBD-B4CD-8F577A4A242D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0064FA-2C55-4F85-89BF-1912EDB61B2F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3171,7 +3213,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3278,13 +3320,13 @@
         <v>33734</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -3293,13 +3335,13 @@
         <v>43409</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>75</v>
@@ -3308,13 +3350,13 @@
         <v>77143</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3371,13 @@
         <v>393605</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>333</v>
@@ -3344,13 +3386,13 @@
         <v>340116</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>718</v>
@@ -3359,13 +3401,13 @@
         <v>733721</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3475,13 @@
         <v>104752</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -3448,13 +3490,13 @@
         <v>85619</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -3463,13 +3505,13 @@
         <v>190371</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3526,13 @@
         <v>352083</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>182</v>
@@ -3499,13 +3541,13 @@
         <v>193865</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>525</v>
@@ -3514,13 +3556,13 @@
         <v>545948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3630,13 @@
         <v>37069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3603,13 +3645,13 @@
         <v>45060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -3618,13 +3660,13 @@
         <v>82129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3681,13 @@
         <v>127121</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -3654,13 +3696,13 @@
         <v>97316</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>212</v>
@@ -3669,13 +3711,13 @@
         <v>224436</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3785,13 @@
         <v>25722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3758,13 +3800,13 @@
         <v>11279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3773,13 +3815,13 @@
         <v>37001</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3836,13 @@
         <v>114051</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -3809,13 +3851,13 @@
         <v>120367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>206</v>
@@ -3824,13 +3866,13 @@
         <v>234417</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3940,13 @@
         <v>7332</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3913,13 +3955,13 @@
         <v>11527</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -3928,13 +3970,13 @@
         <v>18859</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3991,13 @@
         <v>54154</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -3964,13 +4006,13 @@
         <v>90722</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>132</v>
@@ -3979,13 +4021,13 @@
         <v>144875</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4095,13 @@
         <v>2974</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4068,13 +4110,13 @@
         <v>5845</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4083,13 +4125,13 @@
         <v>8819</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4146,13 @@
         <v>130745</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -4119,13 +4161,13 @@
         <v>378659</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>468</v>
@@ -4134,13 +4176,13 @@
         <v>509404</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4250,13 @@
         <v>211582</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -4223,13 +4265,13 @@
         <v>202740</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>375</v>
@@ -4238,13 +4280,13 @@
         <v>414321</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>252</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4301,13 @@
         <v>1171758</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>1145</v>
@@ -4274,13 +4316,13 @@
         <v>1221043</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>2261</v>
@@ -4289,13 +4331,13 @@
         <v>2392802</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,7 +4393,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4373,7 +4415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF97AC5-824C-4E5D-90E0-12AFE9EFF313}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DA40E5-5F9A-4EC0-8689-1CEB96B91DE2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4390,7 +4432,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4497,13 +4539,13 @@
         <v>25825</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -4515,10 +4557,10 @@
         <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>74</v>
@@ -4527,13 +4569,13 @@
         <v>74765</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4590,13 @@
         <v>370122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>316</v>
@@ -4563,13 +4605,13 @@
         <v>308792</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
         <v>663</v>
@@ -4578,13 +4620,13 @@
         <v>678914</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4694,13 @@
         <v>126243</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -4667,13 +4709,13 @@
         <v>98180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M7" s="7">
         <v>219</v>
@@ -4682,13 +4724,13 @@
         <v>224423</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4745,13 @@
         <v>259812</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
         <v>226</v>
@@ -4718,13 +4760,13 @@
         <v>219487</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M8" s="7">
         <v>479</v>
@@ -4733,13 +4775,13 @@
         <v>479299</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4849,13 @@
         <v>54995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4822,13 +4864,13 @@
         <v>48630</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
@@ -4840,10 +4882,10 @@
         <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4900,13 @@
         <v>166425</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>139</v>
@@ -4873,13 +4915,13 @@
         <v>134390</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>300</v>
@@ -4891,10 +4933,10 @@
         <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +5004,13 @@
         <v>23570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -4977,13 +5019,13 @@
         <v>17752</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -4992,13 +5034,13 @@
         <v>41322</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5055,13 @@
         <v>161283</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
@@ -5028,13 +5070,13 @@
         <v>156119</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
@@ -5043,13 +5085,13 @@
         <v>317402</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5159,13 @@
         <v>17607</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5132,13 +5174,13 @@
         <v>8593</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5147,13 +5189,13 @@
         <v>26200</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5210,13 @@
         <v>89418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H17" s="7">
         <v>140</v>
@@ -5183,13 +5225,13 @@
         <v>162541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M17" s="7">
         <v>219</v>
@@ -5198,13 +5240,13 @@
         <v>251959</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5314,13 @@
         <v>7023</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5287,13 +5329,13 @@
         <v>2101</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -5302,13 +5344,13 @@
         <v>9124</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,13 +5365,13 @@
         <v>159619</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>319</v>
@@ -5338,10 +5380,10 @@
         <v>387590</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>84</v>
@@ -5353,13 +5395,13 @@
         <v>547210</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5469,13 @@
         <v>255263</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="H22" s="7">
         <v>220</v>
@@ -5442,13 +5484,13 @@
         <v>224197</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>54</v>
+        <v>372</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="M22" s="7">
         <v>454</v>
@@ -5457,13 +5499,13 @@
         <v>479461</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5520,13 @@
         <v>1206679</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H23" s="7">
         <v>1282</v>
@@ -5493,13 +5535,13 @@
         <v>1368918</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>63</v>
+        <v>382</v>
       </c>
       <c r="M23" s="7">
         <v>2438</v>
@@ -5508,13 +5550,13 @@
         <v>2575597</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,7 +5612,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5592,7 +5634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5559C4F1-3C70-44B0-8D40-AF6D90B3F31F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FEADED-9B0B-49A3-8CF8-B3CA3959ADBC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5609,7 +5651,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5716,13 +5758,13 @@
         <v>19611</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5731,13 +5773,13 @@
         <v>25253</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>391</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>392</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -5746,13 +5788,13 @@
         <v>44864</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5809,13 @@
         <v>356805</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5782,13 +5824,13 @@
         <v>317356</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>400</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>274</v>
+        <v>401</v>
       </c>
       <c r="M5" s="7">
         <v>344</v>
@@ -5797,13 +5839,13 @@
         <v>674161</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5913,13 @@
         <v>103150</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>394</v>
+        <v>183</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="H7" s="7">
         <v>85</v>
@@ -5886,13 +5928,13 @@
         <v>94067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
@@ -5901,13 +5943,13 @@
         <v>197217</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>400</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5964,13 @@
         <v>242018</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>404</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>191</v>
@@ -5937,13 +5979,13 @@
         <v>236009</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M8" s="7">
         <v>358</v>
@@ -5952,13 +5994,13 @@
         <v>478027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>410</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6068,13 @@
         <v>67508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -6041,13 +6083,13 @@
         <v>66059</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -6056,13 +6098,13 @@
         <v>133568</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6119,13 @@
         <v>165245</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="H11" s="7">
         <v>194</v>
@@ -6092,13 +6134,13 @@
         <v>138909</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="M11" s="7">
         <v>349</v>
@@ -6107,13 +6149,13 @@
         <v>304153</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6223,13 @@
         <v>32353</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>438</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -6196,13 +6238,13 @@
         <v>36188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -6211,13 +6253,13 @@
         <v>68541</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6274,13 @@
         <v>233844</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>448</v>
       </c>
       <c r="H14" s="7">
         <v>282</v>
@@ -6247,13 +6289,13 @@
         <v>182776</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="M14" s="7">
         <v>506</v>
@@ -6262,13 +6304,13 @@
         <v>416619</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6378,13 @@
         <v>24826</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -6351,13 +6393,13 @@
         <v>16271</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -6366,13 +6408,13 @@
         <v>41097</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6429,13 @@
         <v>181989</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="H17" s="7">
         <v>342</v>
@@ -6402,13 +6444,13 @@
         <v>205053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="M17" s="7">
         <v>539</v>
@@ -6417,13 +6459,13 @@
         <v>387042</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,13 +6533,13 @@
         <v>16099</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>55</v>
+        <v>473</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -6506,13 +6548,13 @@
         <v>6925</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -6521,13 +6563,13 @@
         <v>23024</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6584,13 @@
         <v>208843</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>482</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="H20" s="7">
         <v>1007</v>
@@ -6557,13 +6599,13 @@
         <v>545156</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="M20" s="7">
         <v>1321</v>
@@ -6572,13 +6614,13 @@
         <v>753999</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,13 +6688,13 @@
         <v>263548</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>293</v>
@@ -6661,13 +6703,13 @@
         <v>244763</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>509</v>
@@ -6676,13 +6718,13 @@
         <v>508310</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6739,13 @@
         <v>1388742</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="H23" s="7">
         <v>2199</v>
@@ -6712,13 +6754,13 @@
         <v>1625259</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="M23" s="7">
         <v>3417</v>
@@ -6727,13 +6769,13 @@
         <v>3014002</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,7 +6831,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P59A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5000B890-5A2F-476E-A3CF-38E28CFAE20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97E42D8E-A2C7-4208-B5AB-CAD603DEC8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2EE69A8-84F1-4441-BF5E-9E4CBF583ACD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F8C0D7A0-1CC9-452E-ACF8-F90A5421733B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="548">
   <si>
     <t>Población según si viven actualmente en pareja en 2007 (Tasa respuesta: 40,22%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>24,19%</t>
@@ -191,7 +191,7 @@
     <t>77,55%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>11,63%</t>
@@ -248,7 +248,7 @@
     <t>91,75%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>18,75%</t>
@@ -305,7 +305,7 @@
     <t>94,22%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>13,43%</t>
@@ -362,52 +362,67 @@
     <t>96,45%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>13,68%</t>
@@ -740,58 +755,76 @@
     <t>93,07%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>15,3%</t>
@@ -1097,475 +1130,559 @@
     <t>93,8%</t>
   </si>
   <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
   </si>
 </sst>
 </file>
@@ -1977,8 +2094,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0251EA55-E043-4D22-BFEF-73836FD3CE31}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A86A8F-66A8-40A7-A8C5-F7A2DD97546A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2870,19 +2987,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>2672</v>
+        <v>838</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2894,25 +3011,25 @@
         <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>838</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2672</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,49 +3038,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7">
-        <v>100408</v>
+        <v>36503</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
-        <v>331</v>
+        <v>141</v>
       </c>
       <c r="I20" s="7">
-        <v>349190</v>
+        <v>131052</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>84</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>436</v>
+        <v>178</v>
       </c>
       <c r="N20" s="7">
-        <v>449598</v>
+        <v>167554</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,10 +3089,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="D21" s="7">
-        <v>103080</v>
+        <v>37341</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2987,10 +3104,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>331</v>
+        <v>141</v>
       </c>
       <c r="I21" s="7">
-        <v>349190</v>
+        <v>131052</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3002,10 +3119,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>439</v>
+        <v>179</v>
       </c>
       <c r="N21" s="7">
-        <v>452270</v>
+        <v>168392</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3019,55 +3136,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>167</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>176279</v>
+        <v>1834</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1834</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="7">
-        <v>133</v>
-      </c>
-      <c r="I22" s="7">
-        <v>141378</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M22" s="7">
-        <v>300</v>
-      </c>
-      <c r="N22" s="7">
-        <v>317657</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,49 +3193,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1097</v>
+        <v>68</v>
       </c>
       <c r="D23" s="7">
-        <v>1111973</v>
+        <v>63905</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="H23" s="7">
-        <v>1222</v>
+        <v>190</v>
       </c>
       <c r="I23" s="7">
-        <v>1240885</v>
+        <v>218138</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
-        <v>2319</v>
+        <v>258</v>
       </c>
       <c r="N23" s="7">
-        <v>2352859</v>
+        <v>282043</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,63 +3244,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>70</v>
+      </c>
+      <c r="D24" s="7">
+        <v>65739</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>190</v>
+      </c>
+      <c r="I24" s="7">
+        <v>218138</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>260</v>
+      </c>
+      <c r="N24" s="7">
+        <v>283877</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>167</v>
+      </c>
+      <c r="D25" s="7">
+        <v>176279</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="7">
+        <v>133</v>
+      </c>
+      <c r="I25" s="7">
+        <v>141378</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="7">
+        <v>300</v>
+      </c>
+      <c r="N25" s="7">
+        <v>317657</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1097</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1111973</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1222</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1240885</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2319</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2352858</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1264</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1288252</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1355</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1382263</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2619</v>
       </c>
-      <c r="N24" s="7">
-        <v>2670516</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>141</v>
+      <c r="N27" s="7">
+        <v>2670515</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3196,8 +3469,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0064FA-2C55-4F85-89BF-1912EDB61B2F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C820F0-EB24-47B1-AC5E-A7B3956EB0CF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3213,7 +3486,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3320,13 +3593,13 @@
         <v>33734</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -3335,13 +3608,13 @@
         <v>43409</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>75</v>
@@ -3350,13 +3623,13 @@
         <v>77143</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3644,13 @@
         <v>393605</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7">
         <v>333</v>
@@ -3386,13 +3659,13 @@
         <v>340116</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M5" s="7">
         <v>718</v>
@@ -3401,13 +3674,13 @@
         <v>733721</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3748,13 @@
         <v>104752</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -3490,13 +3763,13 @@
         <v>85619</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -3505,13 +3778,13 @@
         <v>190371</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3799,13 @@
         <v>352083</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>182</v>
@@ -3541,13 +3814,13 @@
         <v>193865</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>525</v>
@@ -3556,13 +3829,13 @@
         <v>545948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3903,13 @@
         <v>37069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3645,13 +3918,13 @@
         <v>45060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -3660,13 +3933,13 @@
         <v>82129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3954,13 @@
         <v>127121</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -3696,13 +3969,13 @@
         <v>97316</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>212</v>
@@ -3711,13 +3984,13 @@
         <v>224436</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +4058,13 @@
         <v>25722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3800,13 +4073,13 @@
         <v>11279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3815,13 +4088,13 @@
         <v>37001</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +4109,13 @@
         <v>114051</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -3851,13 +4124,13 @@
         <v>120367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>206</v>
@@ -3866,13 +4139,13 @@
         <v>234417</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +4213,13 @@
         <v>7332</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3955,13 +4228,13 @@
         <v>11527</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -3970,13 +4243,13 @@
         <v>18859</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +4264,13 @@
         <v>54154</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -4006,13 +4279,13 @@
         <v>90722</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>132</v>
@@ -4021,13 +4294,13 @@
         <v>144875</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,43 +4368,43 @@
         <v>2974</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>5845</v>
+        <v>3748</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M19" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>8819</v>
+        <v>6722</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,49 +4413,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="D20" s="7">
-        <v>130745</v>
+        <v>53743</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
-        <v>351</v>
+        <v>139</v>
       </c>
       <c r="I20" s="7">
-        <v>378659</v>
+        <v>141480</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
-        <v>468</v>
+        <v>186</v>
       </c>
       <c r="N20" s="7">
-        <v>509404</v>
+        <v>195223</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,10 +4464,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D21" s="7">
-        <v>133719</v>
+        <v>56717</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4206,10 +4479,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>356</v>
+        <v>142</v>
       </c>
       <c r="I21" s="7">
-        <v>384504</v>
+        <v>145228</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4221,10 +4494,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>476</v>
+        <v>192</v>
       </c>
       <c r="N21" s="7">
-        <v>518223</v>
+        <v>201945</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4238,55 +4511,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>211582</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2097</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H22" s="7">
-        <v>183</v>
-      </c>
-      <c r="I22" s="7">
-        <v>202740</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2097</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="M22" s="7">
-        <v>375</v>
-      </c>
-      <c r="N22" s="7">
-        <v>414321</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,49 +4568,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1116</v>
+        <v>70</v>
       </c>
       <c r="D23" s="7">
-        <v>1171758</v>
+        <v>77001</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="7">
+        <v>212</v>
+      </c>
+      <c r="I23" s="7">
+        <v>237180</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="L23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="7">
+        <v>282</v>
+      </c>
+      <c r="N23" s="7">
+        <v>314181</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H23" s="7">
-        <v>1145</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1221043</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2261</v>
-      </c>
-      <c r="N23" s="7">
-        <v>2392802</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,63 +4619,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>70</v>
+      </c>
+      <c r="D24" s="7">
+        <v>77001</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>214</v>
+      </c>
+      <c r="I24" s="7">
+        <v>239277</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>284</v>
+      </c>
+      <c r="N24" s="7">
+        <v>316278</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>192</v>
+      </c>
+      <c r="D25" s="7">
+        <v>211582</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H25" s="7">
+        <v>183</v>
+      </c>
+      <c r="I25" s="7">
+        <v>202740</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M25" s="7">
+        <v>375</v>
+      </c>
+      <c r="N25" s="7">
+        <v>414321</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1116</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1171758</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1145</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1221043</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2261</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2392802</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1308</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1383340</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1328</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1423783</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2636</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2807123</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>141</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4415,8 +4844,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DA40E5-5F9A-4EC0-8689-1CEB96B91DE2}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CCD325-868A-4593-84DF-FF6B58B9BD3B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4432,7 +4861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4539,13 +4968,13 @@
         <v>25825</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -4554,13 +4983,13 @@
         <v>48940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>74</v>
@@ -4569,13 +4998,13 @@
         <v>74765</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +5019,13 @@
         <v>370122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
         <v>316</v>
@@ -4605,13 +5034,13 @@
         <v>308792</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>663</v>
@@ -4620,13 +5049,13 @@
         <v>678914</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +5123,13 @@
         <v>126243</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -4709,28 +5138,28 @@
         <v>98180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
         <v>219</v>
       </c>
       <c r="N7" s="7">
-        <v>224423</v>
+        <v>224424</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +5174,13 @@
         <v>259812</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
         <v>226</v>
@@ -4760,13 +5189,13 @@
         <v>219487</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
         <v>479</v>
@@ -4775,13 +5204,13 @@
         <v>479299</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,7 +5252,7 @@
         <v>698</v>
       </c>
       <c r="N9" s="7">
-        <v>703722</v>
+        <v>703723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4849,13 +5278,13 @@
         <v>54995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4864,13 +5293,13 @@
         <v>48630</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
@@ -4882,10 +5311,10 @@
         <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,13 +5329,13 @@
         <v>166425</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
         <v>139</v>
@@ -4915,13 +5344,13 @@
         <v>134390</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
         <v>300</v>
@@ -4933,10 +5362,10 @@
         <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +5433,13 @@
         <v>23570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5019,13 +5448,13 @@
         <v>17752</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -5034,13 +5463,13 @@
         <v>41322</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5484,13 @@
         <v>161283</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
@@ -5070,13 +5499,13 @@
         <v>156119</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="M14" s="7">
         <v>288</v>
@@ -5085,13 +5514,13 @@
         <v>317402</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5588,13 @@
         <v>17607</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5174,13 +5603,13 @@
         <v>8593</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5189,13 +5618,13 @@
         <v>26200</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,13 +5639,13 @@
         <v>89418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="H17" s="7">
         <v>140</v>
@@ -5225,13 +5654,13 @@
         <v>162541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>219</v>
@@ -5240,13 +5669,13 @@
         <v>251959</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,49 +5737,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>7023</v>
+        <v>4863</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>2101</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>355</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="M19" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>9124</v>
+        <v>4863</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,49 +5788,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7">
-        <v>159619</v>
+        <v>71653</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="I20" s="7">
-        <v>387590</v>
+        <v>145348</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>84</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>489</v>
+        <v>206</v>
       </c>
       <c r="N20" s="7">
-        <v>547210</v>
+        <v>217001</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,10 +5839,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="D21" s="7">
-        <v>166642</v>
+        <v>76516</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5425,10 +5854,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>320</v>
+        <v>137</v>
       </c>
       <c r="I21" s="7">
-        <v>389691</v>
+        <v>145348</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5440,10 +5869,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>497</v>
+        <v>211</v>
       </c>
       <c r="N21" s="7">
-        <v>556334</v>
+        <v>221864</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5457,55 +5886,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>255263</v>
+        <v>2160</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2101</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H22" s="7">
-        <v>220</v>
-      </c>
-      <c r="I22" s="7">
-        <v>224197</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>371</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>372</v>
+        <v>74</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M22" s="7">
-        <v>454</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>479461</v>
+        <v>4261</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,49 +5943,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1156</v>
+        <v>101</v>
       </c>
       <c r="D23" s="7">
-        <v>1206679</v>
+        <v>87967</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>379</v>
+        <v>84</v>
       </c>
       <c r="H23" s="7">
-        <v>1282</v>
+        <v>182</v>
       </c>
       <c r="I23" s="7">
-        <v>1368918</v>
+        <v>242242</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>382</v>
+        <v>84</v>
       </c>
       <c r="M23" s="7">
-        <v>2438</v>
+        <v>283</v>
       </c>
       <c r="N23" s="7">
-        <v>2575597</v>
+        <v>330209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,63 +5994,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>103</v>
+      </c>
+      <c r="D24" s="7">
+        <v>90127</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>183</v>
+      </c>
+      <c r="I24" s="7">
+        <v>244343</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>286</v>
+      </c>
+      <c r="N24" s="7">
+        <v>334470</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>234</v>
+      </c>
+      <c r="D25" s="7">
+        <v>255263</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H25" s="7">
+        <v>220</v>
+      </c>
+      <c r="I25" s="7">
+        <v>224197</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M25" s="7">
+        <v>454</v>
+      </c>
+      <c r="N25" s="7">
+        <v>479461</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1156</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1206679</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1282</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1368918</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2438</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2575597</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1390</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1461942</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1502</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1593115</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2892</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3055058</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>141</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5634,8 +6219,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FEADED-9B0B-49A3-8CF8-B3CA3959ADBC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC9F739-5059-4C88-8B6F-D2A3014014A7}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5651,7 +6236,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,46 +6340,46 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>19611</v>
+        <v>18564</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>25253</v>
+        <v>23406</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>44864</v>
+        <v>41970</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,46 +6391,46 @@
         <v>161</v>
       </c>
       <c r="D5" s="7">
-        <v>356805</v>
+        <v>380085</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
       </c>
       <c r="I5" s="7">
-        <v>317356</v>
+        <v>278329</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="M5" s="7">
         <v>344</v>
       </c>
       <c r="N5" s="7">
-        <v>674161</v>
+        <v>658414</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,7 +6442,7 @@
         <v>171</v>
       </c>
       <c r="D6" s="7">
-        <v>376416</v>
+        <v>398649</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5872,7 +6457,7 @@
         <v>197</v>
       </c>
       <c r="I6" s="7">
-        <v>342609</v>
+        <v>301735</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5887,7 +6472,7 @@
         <v>368</v>
       </c>
       <c r="N6" s="7">
-        <v>719025</v>
+        <v>700384</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5910,46 +6495,46 @@
         <v>62</v>
       </c>
       <c r="D7" s="7">
-        <v>103150</v>
+        <v>104731</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>183</v>
+        <v>427</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="H7" s="7">
         <v>85</v>
       </c>
       <c r="I7" s="7">
-        <v>94067</v>
+        <v>87627</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
       </c>
       <c r="N7" s="7">
-        <v>197217</v>
+        <v>192358</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>433</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,46 +6546,46 @@
         <v>167</v>
       </c>
       <c r="D8" s="7">
-        <v>242018</v>
+        <v>239726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>437</v>
       </c>
       <c r="H8" s="7">
         <v>191</v>
       </c>
       <c r="I8" s="7">
-        <v>236009</v>
+        <v>270268</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="M8" s="7">
         <v>358</v>
       </c>
       <c r="N8" s="7">
-        <v>478027</v>
+        <v>509995</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,7 +6597,7 @@
         <v>229</v>
       </c>
       <c r="D9" s="7">
-        <v>345168</v>
+        <v>344457</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6027,7 +6612,7 @@
         <v>276</v>
       </c>
       <c r="I9" s="7">
-        <v>330076</v>
+        <v>357895</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6042,7 +6627,7 @@
         <v>505</v>
       </c>
       <c r="N9" s="7">
-        <v>675244</v>
+        <v>702353</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6065,46 +6650,46 @@
         <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>67508</v>
+        <v>65814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
       </c>
       <c r="I10" s="7">
-        <v>66059</v>
+        <v>62378</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
       </c>
       <c r="N10" s="7">
-        <v>133568</v>
+        <v>128192</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,46 +6701,46 @@
         <v>155</v>
       </c>
       <c r="D11" s="7">
-        <v>165245</v>
+        <v>159017</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="H11" s="7">
         <v>194</v>
       </c>
       <c r="I11" s="7">
-        <v>138909</v>
+        <v>128063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="M11" s="7">
         <v>349</v>
       </c>
       <c r="N11" s="7">
-        <v>304153</v>
+        <v>287080</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,7 +6752,7 @@
         <v>219</v>
       </c>
       <c r="D12" s="7">
-        <v>232753</v>
+        <v>224831</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6182,7 +6767,7 @@
         <v>287</v>
       </c>
       <c r="I12" s="7">
-        <v>204968</v>
+        <v>190441</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6197,7 +6782,7 @@
         <v>506</v>
       </c>
       <c r="N12" s="7">
-        <v>437721</v>
+        <v>415272</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6220,46 +6805,46 @@
         <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>32353</v>
+        <v>30524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>437</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
       </c>
       <c r="I13" s="7">
-        <v>36188</v>
+        <v>34121</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>68541</v>
+        <v>64646</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,46 +6856,46 @@
         <v>224</v>
       </c>
       <c r="D14" s="7">
-        <v>233844</v>
+        <v>225651</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>446</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="H14" s="7">
         <v>282</v>
       </c>
       <c r="I14" s="7">
-        <v>182776</v>
+        <v>167169</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="M14" s="7">
         <v>506</v>
       </c>
       <c r="N14" s="7">
-        <v>416619</v>
+        <v>392820</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,7 +6907,7 @@
         <v>254</v>
       </c>
       <c r="D15" s="7">
-        <v>266197</v>
+        <v>256175</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6337,7 +6922,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>218964</v>
+        <v>201290</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6352,7 +6937,7 @@
         <v>596</v>
       </c>
       <c r="N15" s="7">
-        <v>485160</v>
+        <v>457466</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6375,46 +6960,46 @@
         <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>24826</v>
+        <v>23625</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
       </c>
       <c r="I16" s="7">
-        <v>16271</v>
+        <v>15096</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
       </c>
       <c r="N16" s="7">
-        <v>41097</v>
+        <v>38721</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,46 +7011,46 @@
         <v>197</v>
       </c>
       <c r="D17" s="7">
-        <v>181989</v>
+        <v>171043</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="H17" s="7">
         <v>342</v>
       </c>
       <c r="I17" s="7">
-        <v>205053</v>
+        <v>187332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="M17" s="7">
         <v>539</v>
       </c>
       <c r="N17" s="7">
-        <v>387042</v>
+        <v>358375</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,7 +7062,7 @@
         <v>222</v>
       </c>
       <c r="D18" s="7">
-        <v>206815</v>
+        <v>194668</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6492,7 +7077,7 @@
         <v>369</v>
       </c>
       <c r="I18" s="7">
-        <v>221324</v>
+        <v>202428</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6507,7 +7092,7 @@
         <v>591</v>
       </c>
       <c r="N18" s="7">
-        <v>428139</v>
+        <v>397096</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6527,49 +7112,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>16099</v>
+        <v>8420</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="H19" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>6925</v>
+        <v>4430</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="M19" s="7">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>23024</v>
+        <v>12849</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,49 +7163,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="D20" s="7">
-        <v>208843</v>
+        <v>100394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="H20" s="7">
-        <v>1007</v>
+        <v>360</v>
       </c>
       <c r="I20" s="7">
-        <v>545156</v>
+        <v>177492</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="M20" s="7">
-        <v>1321</v>
+        <v>517</v>
       </c>
       <c r="N20" s="7">
-        <v>753999</v>
+        <v>277886</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,10 +7214,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>339</v>
+        <v>172</v>
       </c>
       <c r="D21" s="7">
-        <v>224942</v>
+        <v>108814</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6644,10 +7229,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1021</v>
+        <v>369</v>
       </c>
       <c r="I21" s="7">
-        <v>552081</v>
+        <v>181922</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6659,10 +7244,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1360</v>
+        <v>541</v>
       </c>
       <c r="N21" s="7">
-        <v>777023</v>
+        <v>290735</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6676,55 +7261,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>263548</v>
+        <v>6828</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="H22" s="7">
-        <v>293</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>244763</v>
+        <v>1939</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="M22" s="7">
-        <v>509</v>
+        <v>15</v>
       </c>
       <c r="N22" s="7">
-        <v>508310</v>
+        <v>8768</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,49 +7318,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1218</v>
+        <v>157</v>
       </c>
       <c r="D23" s="7">
-        <v>1388742</v>
+        <v>95166</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="H23" s="7">
-        <v>2199</v>
+        <v>647</v>
       </c>
       <c r="I23" s="7">
-        <v>1625259</v>
+        <v>314538</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="M23" s="7">
-        <v>3417</v>
+        <v>804</v>
       </c>
       <c r="N23" s="7">
-        <v>3014002</v>
+        <v>409703</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>507</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,63 +7369,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>167</v>
+      </c>
+      <c r="D24" s="7">
+        <v>101994</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>652</v>
+      </c>
+      <c r="I24" s="7">
+        <v>316477</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>819</v>
+      </c>
+      <c r="N24" s="7">
+        <v>418471</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>216</v>
+      </c>
+      <c r="D25" s="7">
+        <v>258506</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="H25" s="7">
+        <v>293</v>
+      </c>
+      <c r="I25" s="7">
+        <v>228998</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="M25" s="7">
+        <v>509</v>
+      </c>
+      <c r="N25" s="7">
+        <v>487504</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1218</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1371082</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2199</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1523191</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3417</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2894273</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1434</v>
       </c>
-      <c r="D24" s="7">
-        <v>1652290</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1629588</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2492</v>
       </c>
-      <c r="I24" s="7">
-        <v>1870022</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1752189</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>3926</v>
       </c>
-      <c r="N24" s="7">
-        <v>3522312</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>141</v>
+      <c r="N27" s="7">
+        <v>3381777</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
